--- a/groceryapplication/src/test/resources/TestData.xlsx
+++ b/groceryapplication/src/test/resources/TestData.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\eclipse-workspace\groceryapplication\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\groceryapplication\groceryapplication\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60751D5B-4102-44C0-BBBE-EACF8500EEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EB1F2E-39F3-4C8C-8D01-FB81DD0B1B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="HomePage" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Username</t>
   </si>
@@ -40,6 +41,24 @@
   </si>
   <si>
     <t>username</t>
+  </si>
+  <si>
+    <t>Neethu</t>
+  </si>
+  <si>
+    <t>Darshitha</t>
+  </si>
+  <si>
+    <t>Dhar123</t>
+  </si>
+  <si>
+    <t>Usertype</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>neeth123</t>
   </si>
 </sst>
 </file>
@@ -371,8 +390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,4 +445,55 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768E6C95-ABB2-4018-AFB1-04FE932BC8FD}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>